--- a/literature/Literature.xlsx
+++ b/literature/Literature.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stacknit/Github/thesis/Literature/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stacknit/Github/thesis/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -32,9 +35,6 @@
     <t>Jahr</t>
   </si>
   <si>
-    <t>Relevanz</t>
-  </si>
-  <si>
     <t>Vorteile / Nachteile</t>
   </si>
   <si>
@@ -71,12 +71,6 @@
     <t>Teschner</t>
   </si>
   <si>
-    <t xml:space="preserve">Particle-Based Fluid Simulation for Interactive Applications </t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
     <t>Uniform Grid</t>
   </si>
   <si>
@@ -110,18 +104,6 @@
     <t>Hegemann</t>
   </si>
   <si>
-    <t>Dynamic Quadtree on GPU for neighbor querys</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptive Sampling and Rendering of Fluids on the GPU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhang </t>
-  </si>
-  <si>
     <t xml:space="preserve">About the Influence of Illumination Models on Image Comprehension in Direct Volume Rendering </t>
   </si>
   <si>
@@ -143,53 +125,215 @@
     <t>He</t>
   </si>
   <si>
-    <t>Ambient Occlusion</t>
-  </si>
-  <si>
     <t>Pharr</t>
   </si>
   <si>
     <t>Precomputation of occlusion factors</t>
   </si>
   <si>
-    <t xml:space="preserve">Uniform Grid </t>
-  </si>
-  <si>
     <t>SPH Simulation</t>
   </si>
   <si>
-    <t>Particle Simulation</t>
-  </si>
-  <si>
-    <t>GPU SPH Simulation</t>
-  </si>
-  <si>
-    <t>Larger Area of Simulation</t>
-  </si>
-  <si>
     <t>Sliced Datastructure</t>
   </si>
   <si>
-    <t>Particle Mesh Spreading -&gt; ÄHNLICH ZU MEINEM THEMA</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t xml:space="preserve">GPU SPH Simulation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution (=Scattering) </t>
-  </si>
-  <si>
-    <t>Spatial hash function to detect collision without complex data structure</t>
+    <t xml:space="preserve">Interactive Indirect Illumination Using Voxel Cone Tracing </t>
+  </si>
+  <si>
+    <t>Crassin</t>
+  </si>
+  <si>
+    <t>approximate cones using increasing levels of sparse voxel octree</t>
+  </si>
+  <si>
+    <t>Voxel based indirect illumination technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wo verwende ich das </t>
+  </si>
+  <si>
+    <t>High quality rendering of protein dynamics in space filling mode</t>
+  </si>
+  <si>
+    <t>Acceleration Data Structure</t>
+  </si>
+  <si>
+    <t>Particle Ambient Occlusion</t>
+  </si>
+  <si>
+    <t>HOOMD (http://hoomd-blue.readthedocs.io/en/stable/nlist.html)</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Particle simulation toolkit, implemented different neighbor list algorithms for gpus</t>
+  </si>
+  <si>
+    <t>Uniform Grid, LBVH</t>
+  </si>
+  <si>
+    <t>Uniform Grid am schnellsten</t>
+  </si>
+  <si>
+    <t>Fast Fixed Radius Nearest Neighbors: Interactive Million-Particle Fluids</t>
+  </si>
+  <si>
+    <t>Hötzlein</t>
+  </si>
+  <si>
+    <t>Efficient Spatial Binning on the GPU</t>
+  </si>
+  <si>
+    <t>Oat</t>
+  </si>
+  <si>
+    <t>Ambient Occlusion and Edge Cueing to Enhance Real Time Molecular Visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Quality Illustrative Effects for Molecular Rendering </t>
+  </si>
+  <si>
+    <t>Real-Time Molecular Visualization Supporting Diffuse Interreﬂections and Ambient Occlusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambient Occlusion and Real-time Shadows for Particle Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosilla </t>
+  </si>
+  <si>
+    <t>Skanberg</t>
+  </si>
+  <si>
+    <t>Bahnmüller</t>
+  </si>
+  <si>
+    <t>Approximate AO</t>
+  </si>
+  <si>
+    <t>schneller als particle cuda</t>
+  </si>
+  <si>
+    <t>CUDA Particle Interaction (Collision) Demo</t>
+  </si>
+  <si>
+    <t>Uniform Grid + Fixed-Radius NNS + Counting Sort</t>
+  </si>
+  <si>
+    <t>Scattering und Gathering gemischt</t>
+  </si>
+  <si>
+    <t>Mapping particle position to grid cell contributions -&gt; ÄHNLICH  ZU MEINER ARBERIT</t>
+  </si>
+  <si>
+    <t>Gather: weniger atomics, mehr memory transact. + gpu arch. abhängig,</t>
+  </si>
+  <si>
+    <t>Sorting besser bei zufälliger/dichter partikelverteilung</t>
+  </si>
+  <si>
+    <t>Larger simulation Area, memory efficient, filtering???</t>
+  </si>
+  <si>
+    <t>Memory efficient, no hash collision neighboring particle data structure</t>
+  </si>
+  <si>
+    <t>Texture array fit texturcoordinaten als bins</t>
+  </si>
+  <si>
+    <t>mann muss so viele texturen vorallokieren wie es maximal partikel in bin geben wird</t>
+  </si>
+  <si>
+    <t>sort point data into spatial bins on GPU</t>
+  </si>
+  <si>
+    <t>Spatial hash function for collision detection</t>
+  </si>
+  <si>
+    <t>Splatting into View Adaptive voxel grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic GPU Quadtree </t>
+  </si>
+  <si>
+    <t>funktioniert nur 2D</t>
+  </si>
+  <si>
+    <t>ray casting entgegen camerarichtung teurer</t>
+  </si>
+  <si>
+    <t>SPH Simulation komplett auf GPU</t>
+  </si>
+  <si>
+    <t>Object space ambient occlusion without precomputation</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>voxelization into 3d texture + voxel cone-tracing</t>
+  </si>
+  <si>
+    <t>visualization of inner &amp; complex structures using transparency + AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine vorverarbeitung, interactive </t>
+  </si>
+  <si>
+    <t>keine vorverarbeitung, interactive, vct more independent from resolution than 9</t>
+  </si>
+  <si>
+    <t>Bunnell</t>
+  </si>
+  <si>
+    <t>Dynamic Ambient Occlusion and Indirect Lighting (GPU Gems 2)</t>
+  </si>
+  <si>
+    <t>Ambient Occlusion (GPU Gems 1)</t>
+  </si>
+  <si>
+    <t>Dynamic Ambient Occlusion</t>
+  </si>
+  <si>
+    <t>Voxelization -&gt; Motiviert Gathering Ansatz</t>
+  </si>
+  <si>
+    <t>Precomputed Ambient Occlusion</t>
+  </si>
+  <si>
+    <t>Uniform Grid + Atomics ODER Sorting</t>
+  </si>
+  <si>
+    <t>größenordnung schneller als cpu</t>
+  </si>
+  <si>
+    <t>no additional datastrucutre needed</t>
+  </si>
+  <si>
+    <t>implicit spatial subdivision by Mapping 3D cell to hash table</t>
+  </si>
+  <si>
+    <t>Voxelisierung -&gt; Sortierverfahren</t>
+  </si>
+  <si>
+    <t>Voxelization -&gt; Grid sollte sortiert sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radius Nearest Neighbor Search + Vergleich Sortierverfahren + Vergleich Software </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,14 +357,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="NimbusSanL"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,13 +370,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,10 +446,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,12 +472,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,24 +777,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -576,308 +803,627 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="B5" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
         <v>2015</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2013</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="25">
+        <v>2014</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2009</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2006</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1998</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2011</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2011</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2007</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2003</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2003</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2006</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="7">
         <v>2015</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2012</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2006</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2007</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1998</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2011</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2007</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
